--- a/Labs/Week4.xlsx
+++ b/Labs/Week4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
   <si>
     <t>Men</t>
   </si>
@@ -57,6 +57,119 @@
   </si>
   <si>
     <t>Proportion of the women that have a fear of heights</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>When crossing white and yellow summer squash, a genetic model predicts that 75% of resulting offspring will be white, 15% will be yellow and 10% will be green. </t>
+  </si>
+  <si>
+    <t>Below are the results from an experiment run on a random sample of 205 squash offspring.</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Number of Offspring</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Approximately 13% of the world's population is left-handed, but is this proportion the same across men and women?</t>
+  </si>
+  <si>
+    <t>To answer this question, you decide to collect data from a random sample of adults from your neighborhood, with the following results:</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Dominant Hand</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>test of independence</t>
+  </si>
+  <si>
+    <t>3e. Are all relevant conditions met to run this analysis?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>A telephone survey asked a random sample of Indiana voters about their home internet usage, as well as what type of community (rural, suburban or urban) they lived in. </t>
+  </si>
+  <si>
+    <r>
+      <t>Of the 123 survey respondents, 28 were from rural areas, 42 were from suburban areas, and 53 were from urban areas.  Thirteen rural respondents, 35 suburban respondents, and 50 urban respondents said they had access to internet at home.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color rgb="FF313131"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Test of Independence</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Suburban</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Marginal Proportion</t>
+  </si>
+  <si>
+    <t>chi-squared</t>
+  </si>
+  <si>
+    <t>chi critical</t>
   </si>
 </sst>
 </file>
@@ -66,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +206,23 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF313131"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF313131"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FFBF5700"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="4">
@@ -127,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -149,6 +279,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,6 +304,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>224790</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>26670</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15650E4-5175-4AD1-887D-B404A6C93A15}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,19 +661,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -482,11 +682,12 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" ht="24.6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -496,19 +697,20 @@
       <c r="C3" s="3">
         <v>109</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3"/>
+      <c r="E3">
         <f>SUM(B3:C3)</f>
         <v>177</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="8">
-        <f>(B3+C3)/D5</f>
+      <c r="M3" s="8">
+        <f>(B3+C3)/E5</f>
         <v>0.49166666666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="24.6">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -518,19 +720,20 @@
       <c r="C4" s="5">
         <v>89</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5"/>
+      <c r="E4">
         <f>SUM(B4:C4)</f>
         <v>183</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="8">
+      <c r="M4" s="8">
         <f>B3/B5</f>
         <v>0.41975308641975306</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -542,19 +745,19 @@
         <f>SUM(C3:C4)</f>
         <v>198</v>
       </c>
-      <c r="D5">
-        <f>SUM(D3:D4)</f>
+      <c r="E5">
+        <f>SUM(E3:E4)</f>
         <v>360</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <f>C3/C5</f>
         <v>0.5505050505050505</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -562,45 +765,48 @@
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" ht="24.6">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <f>B5*D3/$D$5</f>
+        <f>B5*E3/$E$5</f>
         <v>79.650000000000006</v>
       </c>
       <c r="C8" s="6">
-        <f>C5*D3/$D$5</f>
+        <f>C5*E3/$E$5</f>
         <v>97.35</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6"/>
+      <c r="E8">
         <f>SUM(B8:C8)</f>
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" ht="24.6">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <f>B5*D4/$D$5</f>
+        <f>B5*E4/$E$5</f>
         <v>82.35</v>
       </c>
       <c r="C9" s="6">
-        <f>C5*D4/$D$5</f>
+        <f>C5*E4/$E$5</f>
         <v>100.65</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6"/>
+      <c r="E9">
         <f>SUM(B9:C9)</f>
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -612,12 +818,12 @@
         <f>SUM(C8:C9)</f>
         <v>198</v>
       </c>
-      <c r="D10">
-        <f>SUM(D8:D9)</f>
+      <c r="E10">
+        <f>SUM(E8:E9)</f>
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -630,7 +836,7 @@
         <v>1.3941705187467914</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13">
       <c r="B13">
         <f>(B4-B9)^2/B9</f>
         <v>1.6481177899210704</v>
@@ -640,7 +846,7 @@
         <v>1.3484600099354211</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -649,7 +855,7 @@
         <v>6.0947345081826949</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -657,8 +863,892 @@
         <v>3.84</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="27">
+      <c r="A18" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5">
+      <c r="A20" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22">
+        <v>0.75</v>
+      </c>
+      <c r="C22">
+        <v>0.15</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24.6">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5">
+        <v>152</v>
+      </c>
+      <c r="C24" s="5">
+        <v>39</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <f>SUM(B24:E24)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <f>B22*$F$24</f>
+        <v>153.75</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:E25" si="0">C22*$F$24</f>
+        <v>30.75</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="F25">
+        <f>SUM(B25:E25)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26">
+        <f>(B24-B25)^2/B25</f>
+        <v>1.9918699186991871E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:E26" si="1">(C24-C25)^2/C25</f>
+        <v>2.2134146341463414</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2.0609756097560976</v>
+      </c>
+      <c r="F26" s="11">
+        <f>SUM(B26:E26)</f>
+        <v>4.2943089430894315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27">
+      <c r="A28" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5">
+      <c r="A30" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5">
+      <c r="A31" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="24.6">
+      <c r="A33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="5" t="str">
+        <f>IF(B34= "M", IF(C34="L","A","B"), IF(C34="L", "C","D"))</f>
+        <v>A</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f t="shared" ref="D35:D54" si="2">IF(B35= "M", IF(C35="L","A","B"), IF(C35="L", "C","D"))</f>
+        <v>B</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <f>COUNTIF(D34:D54, "C")</f>
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <f>COUNTIF(D34:D54, "D")</f>
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <f>SUM(H35:I35)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="5">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36">
+        <f>COUNTIF(D34:D54, "A")</f>
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <f>COUNTIF(D34:D54, "B")</f>
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J37" si="3">SUM(H36:I36)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <f>SUM(H35:H36)</f>
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <f>SUM(I35:I36)</f>
+        <v>16</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="5">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="5">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="5">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="11">
+        <f>H37*J35/J37</f>
+        <v>2.6190476190476191</v>
+      </c>
+      <c r="I40" s="11">
+        <f>I37*J35/J37</f>
+        <v>8.3809523809523814</v>
+      </c>
+      <c r="J40">
+        <f>SUM(H40:I40)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="5">
+        <v>8</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="11">
+        <f>H37*J36/J37</f>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="I41" s="11">
+        <f>I37*J36/J37</f>
+        <v>7.6190476190476186</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:J42" si="4">SUM(H41:I41)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5">
+        <v>9</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <f>SUM(H40:H41)</f>
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <f>SUM(I40:I41)</f>
+        <v>16</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="5">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="5">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="5">
+        <v>12</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="5">
+        <v>13</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="5">
+        <v>14</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="5">
+        <v>15</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5">
+        <v>16</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5">
+        <v>17</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5">
+        <v>18</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5">
+        <v>19</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5">
+        <v>20</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5">
+        <v>21</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="27">
+      <c r="A57" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="12"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5">
+      <c r="A59" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5">
+      <c r="A60" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <f>SUM(B65:D65)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>35</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <f>SUM(B66:D66)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <f>SUM(B65:B66)</f>
+        <v>28</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:E67" si="5">SUM(C65:C66)</f>
+        <v>42</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" s="8">
+        <f>B65/$E$67</f>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" ref="C71:D71" si="6">C65/$E$67</f>
+        <v>5.6910569105691054E-2</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="6"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="E71" s="8">
+        <f>SUM(B71:D71)</f>
+        <v>0.2032520325203252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" s="8">
+        <f>B66/$E$67</f>
+        <v>0.10569105691056911</v>
+      </c>
+      <c r="C72" s="8">
+        <f t="shared" ref="C72:D72" si="7">C66/$E$67</f>
+        <v>0.28455284552845528</v>
+      </c>
+      <c r="D72" s="8">
+        <f t="shared" si="7"/>
+        <v>0.4065040650406504</v>
+      </c>
+      <c r="E72" s="8">
+        <f>SUM(B72:D72)</f>
+        <v>0.7967479674796748</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" s="8">
+        <f>SUM(B71:B72)</f>
+        <v>0.22764227642276424</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" ref="C73" si="8">SUM(C71:C72)</f>
+        <v>0.34146341463414631</v>
+      </c>
+      <c r="D73" s="8">
+        <f t="shared" ref="D73" si="9">SUM(D71:D72)</f>
+        <v>0.43089430894308944</v>
+      </c>
+      <c r="E73">
+        <f>SUM(E71:E72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" s="11">
+        <f>B$67*$E$65/$E$67</f>
+        <v>5.691056910569106</v>
+      </c>
+      <c r="C77" s="11">
+        <f>C$67*$E$65/$E$67</f>
+        <v>8.536585365853659</v>
+      </c>
+      <c r="D77" s="11">
+        <f t="shared" ref="C77:D77" si="10">D$67*$E$65/$E$67</f>
+        <v>10.772357723577235</v>
+      </c>
+      <c r="E77" s="14">
+        <f>SUM(B77:D77)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" s="11">
+        <f>B$67*$E$66/$E$67</f>
+        <v>22.308943089430894</v>
+      </c>
+      <c r="C78" s="11">
+        <f t="shared" ref="C78:D78" si="11">C$67*$E$66/$E$67</f>
+        <v>33.463414634146339</v>
+      </c>
+      <c r="D78" s="11">
+        <f t="shared" si="11"/>
+        <v>42.227642276422763</v>
+      </c>
+      <c r="E78" s="14">
+        <f>SUM(B78:D78)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" s="14">
+        <f>SUM(B77:B78)</f>
+        <v>28</v>
+      </c>
+      <c r="C79" s="14">
+        <f t="shared" ref="C79" si="12">SUM(C77:C78)</f>
+        <v>42</v>
+      </c>
+      <c r="D79" s="14">
+        <f t="shared" ref="D79" si="13">SUM(D77:D78)</f>
+        <v>53</v>
+      </c>
+      <c r="E79" s="14">
+        <f>SUM(E77:E78)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="B81">
+        <f>(B65-B77)^2/B77</f>
+        <v>15.226771196283389</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81:D82" si="14">(C65-C77)^2/C77</f>
+        <v>0.27658536585365873</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="14"/>
+        <v>5.6078294216904423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82">
+        <f>(B66-B78)^2/B78</f>
+        <v>3.8843804072151507</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="14"/>
+        <v>7.0557491289198818E-2</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="14"/>
+        <v>1.4305687300230727</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83">
+        <f>SUM(B81:D82)</f>
+        <v>26.496692612354913</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84">
+        <v>5.99</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L3:L5">
+  <conditionalFormatting sqref="M3:M5">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -674,6 +1764,35 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>224790</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>26670</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -686,7 +1805,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L3:L5</xm:sqref>
+          <xm:sqref>M3:M5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
